--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55F1E02-C02D-4BD6-8F02-0EE454EA58F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -417,23 +418,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:RepayType
-1.期款
-2.部分償還
-3.結案
-4.帳管費
-5.火險費
-6.契變手續費
-7.法務費
-9.其他</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:PerfRepayCode
-1:扣薪件;2:特約件;3:滯繳件;4:人事特約件;5:房貸扣薪件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>入帳扣款別</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -545,11 +529,32 @@
     <t>mediaDateRng</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>CdCode.RepayType
+1:期款
+2:部分償還
+3:結案
+4:帳管費
+5:火險費
+6:契變手續費
+7:法務費
+9:其他</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.PerfRepayCode
+1:扣薪件
+2:特約件
+3:滯繳件
+4:人事特約件
+5:房貸扣薪件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -883,12 +888,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 2 2" xfId="6"/>
-    <cellStyle name="一般 2 3" xfId="5"/>
-    <cellStyle name="一般 3" xfId="4"/>
-    <cellStyle name="一般 4" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -979,6 +984,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1014,6 +1036,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1189,11 +1228,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1241,7 +1280,7 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1328,7 +1367,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="22">
         <v>8</v>
@@ -1358,10 +1397,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>35</v>
@@ -1370,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1396,10 +1435,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>34</v>
@@ -1409,7 +1448,7 @@
       </c>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:7" ht="32.4">
+    <row r="14" spans="1:7" ht="97.2">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1426,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1526,10 +1565,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>62</v>
@@ -1562,19 +1601,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E22" s="22">
         <v>8</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1595,7 +1634,7 @@
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1615,7 +1654,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1635,7 +1674,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1721,7 +1760,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E30" s="22">
         <v>8</v>
@@ -1739,7 +1778,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E31" s="22">
         <v>8</v>
@@ -1826,7 +1865,7 @@
         <v>104</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>99</v>
@@ -1836,7 +1875,7 @@
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1886,7 +1925,7 @@
         <v>67</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E39" s="28">
         <v>8</v>
@@ -2041,10 +2080,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -2097,10 +2136,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>105</v>
@@ -2114,7 +2153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2131,42 +2170,42 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
